--- a/Daily Backup hourlys/30 min csh/BAJFIN.xlsx
+++ b/Daily Backup hourlys/30 min csh/BAJFIN.xlsx
@@ -586,19 +586,19 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="2" t="n">
-        <v>7108</v>
+        <v>7445.3</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>7177.85</v>
+        <v>7468.95</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>7085.8</v>
+        <v>7305.5</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>7128.35</v>
+        <v>7367.15</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>7103.15</v>
+        <v>7493.95</v>
       </c>
       <c r="K7" s="1" t="n"/>
       <c r="L7" s="1" t="n"/>
@@ -649,13 +649,13 @@
         <v>0.3958333333333333</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>7119</v>
+        <v>7477</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>7065.5</v>
+        <v>7407</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>7089.8</v>
+        <v>7421</v>
       </c>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
@@ -674,13 +674,13 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>7107.8</v>
+        <v>7439.75</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>7087</v>
+        <v>7401</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>7100.65</v>
+        <v>7428</v>
       </c>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
@@ -699,13 +699,13 @@
         <v>0.4375</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>7124.45</v>
+        <v>7461.95</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>7096.4</v>
+        <v>7419.1</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>7120</v>
+        <v>7432.15</v>
       </c>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
@@ -724,13 +724,13 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>7120</v>
+        <v>7449.95</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>7097.7</v>
+        <v>7415</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>7097.9</v>
+        <v>7443.9</v>
       </c>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
@@ -749,13 +749,13 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>7172.75</v>
+        <v>7457.45</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>7090</v>
+        <v>7426</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>7148.65</v>
+        <v>7441.35</v>
       </c>
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
@@ -774,13 +774,13 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>7165</v>
+        <v>7453.85</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>7143.45</v>
+        <v>7430.3</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>7158</v>
+        <v>7433.5</v>
       </c>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
@@ -799,13 +799,13 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>7177.85</v>
+        <v>7448.9</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>7107.6</v>
+        <v>7428.1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>7107.65</v>
+        <v>7439.65</v>
       </c>
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
@@ -824,13 +824,13 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>7129</v>
+        <v>7468.95</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>7108.25</v>
+        <v>7433.9</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>7121</v>
+        <v>7459.15</v>
       </c>
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
@@ -849,13 +849,13 @@
         <v>0.5625</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>7129.7</v>
+        <v>7468.05</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>7112.7</v>
+        <v>7415.5</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>7124.1</v>
+        <v>7420.05</v>
       </c>
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
@@ -874,13 +874,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>7129.8</v>
+        <v>7417.35</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>7112.05</v>
+        <v>7350</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>7122.3</v>
+        <v>7362.2</v>
       </c>
       <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
@@ -899,13 +899,13 @@
         <v>0.6041666666666666</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>7129.9</v>
+        <v>7379.2</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>7114.1</v>
+        <v>7305.5</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>7128.1</v>
+        <v>7353.95</v>
       </c>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
@@ -924,13 +924,13 @@
         <v>0.625</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>7151</v>
+        <v>7367.55</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>7125.8</v>
+        <v>7342.2</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>7139.3</v>
+        <v>7349.7</v>
       </c>
       <c r="J20" s="1" t="n"/>
       <c r="K20" s="1" t="n"/>
@@ -949,13 +949,13 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>7146.75</v>
+        <v>7388</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>7117.95</v>
+        <v>7346.1</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>7123</v>
+        <v>7386</v>
       </c>
       <c r="J21" s="1" t="n"/>
       <c r="K21" s="1" t="n"/>
